--- a/biology/Botanique/Afrothismia/Afrothismia.xlsx
+++ b/biology/Botanique/Afrothismia/Afrothismia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrothismia est un genre de plantes de la famille des Burmanniaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (12 août 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (12 août 2017) :
 Afrothismia amietii Cheek
 Afrothismia baerae Cheek
 Afrothismia foertheriana T. Franke, Sainge &amp; Agerer
@@ -554,7 +570,7 @@
 Afrothismia saingei T. Franke
 Afrothismia winkleri (Engl.) Schltr.
 Afrothismia zambesiaca Cheek
-Selon Catalogue of Life                                   (12 août 2017)[3] :
+Selon Catalogue of Life                                   (12 août 2017) :
 Afrothismia amietii Cheek
 Afrothismia baerae Cheek
 Afrothismia foertheriana T.Franke, Sainge &amp; Agerer
@@ -567,7 +583,7 @@
 Afrothismia saingei T.Franke
 Afrothismia winkleri (Engl.) Schltr.
 Afrothismia zambesiaca Cheek
-Selon World Checklist of Selected Plant Families (WCSP)  (12 août 2017)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (12 août 2017) :
 Afrothismia amietii Cheek (2007)
 Afrothismia baerae Cheek (2003 publ. 2004)
 Afrothismia foertheriana T.Franke, Sainge &amp; Agerer (2004)
@@ -584,7 +600,7 @@
 variété Afrothismia winkleri var. budongensis Cowley, Fl. Trop. E. Afr. (1988)
 variété Afrothismia winkleri var. winkleri
 Afrothismia zambesiaca Cheek (2009)
-Selon NCBI  (12 août 2017)[5] :
+Selon NCBI  (12 août 2017) :
 Afrothismia amietii
 Afrothismia foertheriana
 Afrothismia gabonensis
@@ -592,7 +608,7 @@
 Afrothismia hydra
 Afrothismia korupensis
 Afrothismia winkleri
-Selon The Plant List            (12 août 2017)[6] :
+Selon The Plant List            (12 août 2017) :
 Afrothismia amietii Cheek
 Afrothismia baerae Cheek
 Afrothismia foertheriana T.Franke, Sainge &amp; Agerer
@@ -605,7 +621,7 @@
 Afrothismia saingei T.Franke
 Afrothismia winkleri (Engl.) Schltr.
 Afrothismia zambesiaca Cheek
-Selon Tropicos                                           (12 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Afrothismia amietii Cheek
 Afrothismia baerae Cheek
 Afrothismia foertheriana Franke, Sainge &amp; Agerer
